--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21823"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E0F9F4-B9BE-4ECB-A08E-A2292E603266}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7374FE13-8A8B-4FF6-854C-5C94C2B4E6A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="900" windowWidth="35085" windowHeight="14745" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,15 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
-    <t>PROJECT TITLE</t>
+    <t>Office diff</t>
   </si>
   <si>
     <t>Legend:</t>
   </si>
   <si>
-    <t>Company Name</t>
+    <t>GitHub</t>
   </si>
   <si>
     <t>On Track</t>
@@ -89,7 +89,7 @@
     <t>Title 1</t>
   </si>
   <si>
-    <t>Task 1</t>
+    <t>Word</t>
   </si>
   <si>
     <t>Goal</t>
@@ -98,7 +98,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Task 2</t>
+    <t>Excel</t>
   </si>
   <si>
     <t>Milestone</t>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Title 2</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
   </si>
   <si>
     <t>Title 3</t>
@@ -1585,7 +1591,9 @@
   </sheetPr>
   <dimension ref="A1:BK36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
@@ -1757,7 +1765,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="54">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="46"/>
@@ -2792,8 +2800,8 @@
         <v>0.25</v>
       </c>
       <c r="E10" s="23">
-        <f ca="1">TODAY()-2</f>
-        <v>43641</v>
+        <f ca="1">TODAY()-1</f>
+        <v>43642</v>
       </c>
       <c r="F10" s="24">
         <v>3</v>
@@ -2803,21 +2811,21 @@
         <f ca="1">IF(AND($B10="Goal",H$5&gt;=$E10,H$5&lt;=$E10+$F10-1),2,IF(AND($B10="Milestone",H$5&gt;=$E10,H$5&lt;=$E10+$F10-1),1,""))</f>
         <v/>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="J10" s="28">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-      <c r="J10" s="28">
+      <c r="K10" s="28">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-      <c r="K10" s="28">
+      <c r="L10" s="28">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
-      </c>
-      <c r="L10" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
       </c>
       <c r="M10" s="28" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3279,7 +3287,7 @@
       </c>
       <c r="E12" s="23">
         <f ca="1">E10+1</f>
-        <v>43642</v>
+        <v>43643</v>
       </c>
       <c r="F12" s="24">
         <v>10</v>
@@ -3521,7 +3529,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="23">
         <f ca="1">E10+20</f>
-        <v>43661</v>
+        <v>43662</v>
       </c>
       <c r="F13" s="24">
         <v>1</v>
@@ -3611,13 +3619,13 @@
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC13" s="28">
+      <c r="AC13" s="28" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AD13" s="28">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
-      </c>
-      <c r="AD13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
       </c>
       <c r="AE13" s="28" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3765,7 +3773,7 @@
       </c>
       <c r="E14" s="23">
         <f ca="1">E10+6</f>
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="F14" s="24">
         <v>6</v>
@@ -4233,7 +4241,7 @@
     </row>
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>6</v>
@@ -4244,7 +4252,7 @@
       </c>
       <c r="E16" s="23">
         <f ca="1">E10+6</f>
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="F16" s="24">
         <v>13</v>
@@ -4477,7 +4485,7 @@
     </row>
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>3</v>
@@ -4488,7 +4496,7 @@
       </c>
       <c r="E17" s="23">
         <f ca="1">E16+2</f>
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="F17" s="24">
         <v>9</v>
@@ -4732,7 +4740,7 @@
       </c>
       <c r="E18" s="23">
         <f ca="1">E17+5</f>
-        <v>43654</v>
+        <v>43655</v>
       </c>
       <c r="F18" s="24">
         <v>11</v>
@@ -4974,7 +4982,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="23">
         <f ca="1">E18+2</f>
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="F19" s="24">
         <v>1</v>
@@ -5044,13 +5052,13 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="X19" s="28">
+      <c r="X19" s="28" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Y19" s="28">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
-      </c>
-      <c r="Y19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
       </c>
       <c r="Z19" s="28" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5214,7 +5222,7 @@
       <c r="D20" s="22"/>
       <c r="E20" s="23">
         <f ca="1">E19+1</f>
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="F20" s="24">
         <v>24</v>
@@ -5447,7 +5455,7 @@
     </row>
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -5682,7 +5690,7 @@
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="31" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>3</v>
@@ -5691,7 +5699,7 @@
       <c r="D22" s="22"/>
       <c r="E22" s="23">
         <f ca="1">E10+15</f>
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="F22" s="24">
         <v>4</v>
@@ -5924,7 +5932,7 @@
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>5</v>
@@ -5933,7 +5941,7 @@
       <c r="D23" s="22"/>
       <c r="E23" s="23">
         <f ca="1">E22+3</f>
-        <v>43659</v>
+        <v>43660</v>
       </c>
       <c r="F23" s="24">
         <v>14</v>
@@ -6175,7 +6183,7 @@
       <c r="D24" s="22"/>
       <c r="E24" s="23">
         <f ca="1">E23+15</f>
-        <v>43674</v>
+        <v>43675</v>
       </c>
       <c r="F24" s="24">
         <v>6</v>
@@ -6417,7 +6425,7 @@
       <c r="D25" s="22"/>
       <c r="E25" s="23">
         <f ca="1">E19+22</f>
-        <v>43678</v>
+        <v>43679</v>
       </c>
       <c r="F25" s="24">
         <v>3</v>
@@ -6575,21 +6583,21 @@
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="AT25" s="28">
+      <c r="AT25" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU25" s="28">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
-      <c r="AU25" s="28">
+      <c r="AV25" s="28">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
-      <c r="AV25" s="28">
+      <c r="AW25" s="28">
         <f t="shared" ca="1" si="11"/>
         <v>2</v>
-      </c>
-      <c r="AW25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
       </c>
       <c r="AX25" s="28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -6659,7 +6667,7 @@
       <c r="D26" s="22"/>
       <c r="E26" s="23">
         <f ca="1">E14</f>
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="F26" s="24">
         <v>19</v>
@@ -6892,7 +6900,7 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -7127,14 +7135,14 @@
     </row>
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23">
         <f ca="1">E25+3</f>
-        <v>43681</v>
+        <v>43682</v>
       </c>
       <c r="F28" s="24">
         <v>15</v>
@@ -7367,14 +7375,14 @@
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23">
         <f ca="1">E25+9</f>
-        <v>43687</v>
+        <v>43688</v>
       </c>
       <c r="F29" s="24">
         <v>5</v>
@@ -7616,7 +7624,7 @@
       <c r="D30" s="22"/>
       <c r="E30" s="23">
         <f ca="1">E25+11</f>
-        <v>43689</v>
+        <v>43690</v>
       </c>
       <c r="F30" s="24">
         <v>1</v>
@@ -7818,13 +7826,13 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BE30" s="28">
+      <c r="BE30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF30" s="28">
         <f t="shared" ca="1" si="12"/>
         <v>1</v>
-      </c>
-      <c r="BF30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
       </c>
       <c r="BG30" s="28" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8552,7 +8560,7 @@
     </row>
     <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -8937,27 +8945,27 @@
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25">
       <c r="A1" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="105">
       <c r="A2" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="204.95" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
